--- a/biology/Botanique/Société_lyonnaise_d'horticulture/Société_lyonnaise_d'horticulture.xlsx
+++ b/biology/Botanique/Société_lyonnaise_d'horticulture/Société_lyonnaise_d'horticulture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_lyonnaise_d%27horticulture</t>
+          <t>Société_lyonnaise_d'horticulture</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société lyonnaise d'horticulture est une société savante fondée en 1844 pour promouvoir les connaissances horticoles et réaliser des publications périodiques. L'association est héritière de la Société d’horticulture pratique du Rhône.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_lyonnaise_d%27horticulture</t>
+          <t>Société_lyonnaise_d'horticulture</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'association est créée en 1844 et elle est reconnue d’utilité publique en 1894. La première exposition d'horticulture est organisée à Lyon en 1837 par la Société d'Agriculture. La Société d'horticulture pratique du Rhône prend le relais dès sa création, en 1844[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'association est créée en 1844 et elle est reconnue d’utilité publique en 1894. La première exposition d'horticulture est organisée à Lyon en 1837 par la Société d'Agriculture. La Société d'horticulture pratique du Rhône prend le relais dès sa création, en 1844. 
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_lyonnaise_d%27horticulture</t>
+          <t>Société_lyonnaise_d'horticulture</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lyon horticole, Lyon, 1879- (BNF 34423937, lire en ligne).</t>
         </is>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_lyonnaise_d%27horticulture</t>
+          <t>Société_lyonnaise_d'horticulture</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,9 +588,11 @@
           <t>Membres de l'association</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Nicolas Charles Seringe, directeur du Jardin des Plantes de Lyon, est l'un des fondateurs de l'association[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Nicolas Charles Seringe, directeur du Jardin des Plantes de Lyon, est l'un des fondateurs de l'association.
 Charles Fortuné Willermoz.</t>
         </is>
       </c>
